--- a/src/TurmaPM_Grupo_4.xlsx
+++ b/src/TurmaPM_Grupo_4.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="182">
   <si>
     <t xml:space="preserve">IDADE</t>
   </si>
@@ -66,10 +66,10 @@
     <t xml:space="preserve">QE_I05</t>
   </si>
   <si>
-    <t xml:space="preserve">QE_I07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QE_I08</t>
+    <t xml:space="preserve">NPESSOASCASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENDAFAMILIA</t>
   </si>
   <si>
     <t xml:space="preserve">QE_I09</t>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">QE_I10</t>
   </si>
   <si>
-    <t xml:space="preserve">QE_I17</t>
+    <t xml:space="preserve">ESCOLAEM</t>
   </si>
   <si>
     <t xml:space="preserve">QE_I21</t>
@@ -213,9 +213,6 @@
     <t xml:space="preserve">QE_I68</t>
   </si>
   <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
@@ -232,12 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">*</t>
@@ -328,6 +319,9 @@
 D = Ensino médio.
 E = Ensino Superior - Graduação.
 F = Pós-graduação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QE_I07</t>
   </si>
   <si>
     <t xml:space="preserve">Quantas pessoas da sua família moram com você? Considere seus pais, irmãos, cônjuge, filhos e outros parentes que moram na mesma casa com você.</t>
@@ -343,6 +337,9 @@
 H = Sete ou mais.</t>
   </si>
   <si>
+    <t xml:space="preserve">QE_I08</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qual a renda total de sua família, incluindo seus rendimentos?</t>
   </si>
   <si>
@@ -374,6 +371,9 @@
 C = Trabalho até 20 horas semanais.
 D = Trabalho de 21 a 39 horas semanais.
 E = Trabalho 40 horas semanais ou mais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QE_I17</t>
   </si>
   <si>
     <t xml:space="preserve">Em que tipo de escola você cursou o ensino médio?</t>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t xml:space="preserve">NOTA COMPONENTE ESPECIFICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">Branca</t>
@@ -653,7 +656,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* \-??_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -697,6 +700,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -844,7 +853,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -854,7 +863,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -875,6 +884,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,15 +904,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,7 +928,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="25" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1003,7 +1020,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1116,11 +1133,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="56621552"/>
-        <c:axId val="26776244"/>
+        <c:axId val="39997268"/>
+        <c:axId val="74877687"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56621552"/>
+        <c:axId val="39997268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,14 +1169,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26776244"/>
+        <c:crossAx val="74877687"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26776244"/>
+        <c:axId val="74877687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1215,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56621552"/>
+        <c:crossAx val="39997268"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1225,7 +1242,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1306,6 +1323,26 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -1330,11 +1367,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="64078001"/>
-        <c:axId val="34879200"/>
+        <c:axId val="70412859"/>
+        <c:axId val="37992973"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64078001"/>
+        <c:axId val="70412859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,14 +1403,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34879200"/>
+        <c:crossAx val="37992973"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34879200"/>
+        <c:axId val="37992973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64078001"/>
+        <c:crossAx val="70412859"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1439,7 +1476,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1570,11 +1607,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="40919365"/>
-        <c:axId val="64615001"/>
+        <c:axId val="87016493"/>
+        <c:axId val="45118969"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40919365"/>
+        <c:axId val="87016493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,14 +1643,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64615001"/>
+        <c:crossAx val="45118969"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64615001"/>
+        <c:axId val="45118969"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1689,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40919365"/>
+        <c:crossAx val="87016493"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1690,9 +1727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1701,7 +1738,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="5615640" cy="2742480"/>
+        <a:ext cx="5615280" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1720,9 +1757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1731,7 +1768,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6070320" y="0"/>
-        <a:ext cx="5616000" cy="2742480"/>
+        <a:ext cx="5615640" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1750,9 +1787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1761,7 +1798,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12141000" y="0"/>
-        <a:ext cx="5616000" cy="2742480"/>
+        <a:ext cx="5615640" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1780,9 +1817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>758160</xdr:colOff>
+      <xdr:colOff>757800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1792,7 +1829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3051000"/>
-          <a:ext cx="3793320" cy="3141000"/>
+          <a:ext cx="3792960" cy="3140640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1871,9 +1908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>758160</xdr:colOff>
+      <xdr:colOff>757800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1883,7 +1920,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4552920" y="3051720"/>
-          <a:ext cx="3793320" cy="3160080"/>
+          <a:ext cx="3792960" cy="3159720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,9 +1999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1974,7 +2011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9105840" y="3047760"/>
-          <a:ext cx="3803040" cy="3115440"/>
+          <a:ext cx="3802680" cy="3115080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,11 +2099,11 @@
     <tableColumn id="9" name="CO_RS_I9"/>
     <tableColumn id="10" name="QE_I02"/>
     <tableColumn id="11" name="QE_I05"/>
-    <tableColumn id="12" name="QE_I07"/>
-    <tableColumn id="13" name="QE_I08"/>
+    <tableColumn id="12" name="NPESSOASCASA"/>
+    <tableColumn id="13" name="RENDAFAMILIA"/>
     <tableColumn id="14" name="QE_I09"/>
     <tableColumn id="15" name="QE_I10"/>
-    <tableColumn id="16" name="QE_I17"/>
+    <tableColumn id="16" name="ESCOLAEM"/>
     <tableColumn id="17" name="QE_I21"/>
     <tableColumn id="18" name="QE_I23"/>
     <tableColumn id="19" name="QE_I27"/>
@@ -2123,8 +2160,8 @@
   </sheetPr>
   <dimension ref="A1:BH37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B20" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="38:45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2327,8 +2364,8 @@
       <c r="A2" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>49.3</v>
@@ -2340,43 +2377,43 @@
         <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>4919</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="P2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>4</v>
@@ -2509,8 +2546,8 @@
       <c r="A3" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>60</v>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>63.5</v>
@@ -2522,43 +2559,43 @@
         <v>58.6</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>7496</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="S3" s="3" t="n">
         <v>5</v>
@@ -2691,8 +2728,8 @@
       <c r="A4" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>60</v>
+      <c r="B4" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>36</v>
@@ -2704,43 +2741,43 @@
         <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="R4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>5</v>
@@ -2873,8 +2910,8 @@
       <c r="A5" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>60</v>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>37.1</v>
@@ -2886,43 +2923,43 @@
         <v>30.9</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>4919</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="O5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="S5" s="3" t="n">
         <v>4</v>
@@ -3055,8 +3092,8 @@
       <c r="A6" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>46.9</v>
@@ -3068,43 +3105,43 @@
         <v>42.5</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>4919</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>3</v>
@@ -3237,8 +3274,8 @@
       <c r="A7" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>60</v>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>30.9</v>
@@ -3250,43 +3287,43 @@
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>7496</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S7" s="3" t="n">
         <v>4</v>
@@ -3419,8 +3456,8 @@
       <c r="A8" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>60</v>
+      <c r="B8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>40.3</v>
@@ -3432,43 +3469,43 @@
         <v>38.7</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="I8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="L8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S8" s="4" t="n">
         <v>6</v>
@@ -3601,8 +3638,8 @@
       <c r="A9" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>60</v>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>48.3</v>
@@ -3614,43 +3651,43 @@
         <v>38.2</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="R9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S9" s="3" t="n">
         <v>2</v>
@@ -3783,8 +3820,8 @@
       <c r="A10" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>60</v>
+      <c r="B10" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>62.7</v>
@@ -3796,43 +3833,43 @@
         <v>57.1</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S10" s="4" t="n">
         <v>5</v>
@@ -3965,8 +4002,8 @@
       <c r="A11" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>36.2</v>
@@ -3978,43 +4015,43 @@
         <v>28.5</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="L11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>7496</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="S11" s="3" t="n">
         <v>5</v>
@@ -4147,8 +4184,8 @@
       <c r="A12" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>66</v>
+      <c r="B12" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>43</v>
@@ -4160,43 +4197,43 @@
         <v>38.7</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="L12" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="P12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S12" s="4" t="n">
         <v>6</v>
@@ -4329,8 +4366,8 @@
       <c r="A13" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>51.8</v>
@@ -4342,43 +4379,43 @@
         <v>50.3</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="R13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S13" s="3" t="n">
         <v>6</v>
@@ -4511,8 +4548,8 @@
       <c r="A14" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
+      <c r="B14" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>65.1</v>
@@ -4524,43 +4561,43 @@
         <v>58</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="L14" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>4919</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="S14" s="4" t="n">
         <v>6</v>
@@ -4693,8 +4730,8 @@
       <c r="A15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>38.9</v>
@@ -4706,43 +4743,43 @@
         <v>36.3</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="K15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="R15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S15" s="3" t="n">
         <v>6</v>
@@ -4875,8 +4912,8 @@
       <c r="A16" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>66</v>
+      <c r="B16" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>21.9</v>
@@ -4888,43 +4925,43 @@
         <v>23.2</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="P16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="S16" s="4" t="n">
         <v>4</v>
@@ -5057,8 +5094,8 @@
       <c r="A17" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
+      <c r="B17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>35.3</v>
@@ -5070,43 +5107,43 @@
         <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="P17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="S17" s="3" t="n">
         <v>5</v>
@@ -5239,8 +5276,8 @@
       <c r="A18" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>60</v>
+      <c r="B18" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>61.5</v>
@@ -5252,43 +5289,43 @@
         <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="O18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S18" s="4" t="n">
         <v>6</v>
@@ -5421,8 +5458,8 @@
       <c r="A19" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>41.1</v>
@@ -5434,43 +5471,43 @@
         <v>34.8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="I19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="P19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="R19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S19" s="3" t="n">
         <v>6</v>
@@ -5603,8 +5640,8 @@
       <c r="A20" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>60</v>
+      <c r="B20" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>65</v>
@@ -5616,43 +5653,43 @@
         <v>66</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>65</v>
+      <c r="P20" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S20" s="4" t="n">
         <v>6</v>
@@ -5785,8 +5822,8 @@
       <c r="A21" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>51</v>
@@ -5798,43 +5835,43 @@
         <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>7496</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="S21" s="3" t="n">
         <v>2</v>
@@ -5967,8 +6004,8 @@
       <c r="A22" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>60</v>
+      <c r="B22" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>39.9</v>
@@ -5980,43 +6017,43 @@
         <v>34.8</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>7496</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="O22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>4</v>
@@ -6149,8 +6186,8 @@
       <c r="A23" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>60</v>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>72.7</v>
@@ -6162,43 +6199,43 @@
         <v>69.5</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="K23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="S23" s="3" t="n">
         <v>4</v>
@@ -6331,8 +6368,8 @@
       <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
+      <c r="B24" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>39.8</v>
@@ -6344,43 +6381,43 @@
         <v>39.2</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="L24" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24" s="4" t="s">
+      <c r="P24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="R24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S24" s="4" t="n">
         <v>4</v>
@@ -6513,8 +6550,8 @@
       <c r="A25" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>60</v>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>66.6</v>
@@ -6526,43 +6563,43 @@
         <v>69.5</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="J25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N25" s="3" t="s">
+      <c r="P25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="S25" s="3" t="n">
         <v>6</v>
@@ -6695,8 +6732,8 @@
       <c r="A26" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
+      <c r="B26" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>66.1</v>
@@ -6708,43 +6745,43 @@
         <v>62.5</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="S26" s="4" t="n">
         <v>4</v>
@@ -6877,8 +6914,8 @@
       <c r="A27" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>40.9</v>
@@ -6890,43 +6927,43 @@
         <v>30.9</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="P27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="R27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S27" s="3" t="n">
         <v>6</v>
@@ -7059,8 +7096,8 @@
       <c r="A28" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
+      <c r="B28" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>46</v>
@@ -7072,43 +7109,43 @@
         <v>48.8</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="L28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>5</v>
@@ -7241,8 +7278,8 @@
       <c r="A29" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>60</v>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>25.9</v>
@@ -7254,43 +7291,43 @@
         <v>27</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="J29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="L29" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="S29" s="3" t="n">
         <v>3</v>
@@ -7423,8 +7460,8 @@
       <c r="A30" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>60</v>
+      <c r="B30" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>50.3</v>
@@ -7436,43 +7473,43 @@
         <v>50.2</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="K30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M30" s="4" t="s">
+      <c r="P30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S30" s="4" t="n">
         <v>5</v>
@@ -7605,8 +7642,8 @@
       <c r="A31" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>60</v>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>39.2</v>
@@ -7618,43 +7655,43 @@
         <v>31.9</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="L31" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" s="5" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="R31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S31" s="3" t="n">
         <v>4</v>
@@ -7787,8 +7824,8 @@
       <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
+      <c r="B32" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>47.5</v>
@@ -7800,43 +7837,43 @@
         <v>46.3</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="K32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6" t="n">
+        <v>7496</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="P32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S32" s="4" t="n">
         <v>3</v>
@@ -7969,8 +8006,8 @@
       <c r="A33" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>60</v>
+      <c r="B33" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>41.7</v>
@@ -7982,43 +8019,43 @@
         <v>30.9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>721</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R33" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="S33" s="3" t="n">
         <v>4</v>
@@ -8151,8 +8188,8 @@
       <c r="A34" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>66</v>
+      <c r="B34" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>39.4</v>
@@ -8164,43 +8201,43 @@
         <v>37.8</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M34" s="6" t="n">
+        <v>3513</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="4" t="s">
+      <c r="P34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="R34" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>6</v>
@@ -8333,8 +8370,8 @@
       <c r="A35" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>51.9</v>
@@ -8346,43 +8383,43 @@
         <v>48.3</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="J35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <v>4919</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" s="3" t="s">
+      <c r="P35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="R35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S35" s="3" t="n">
         <v>5</v>
@@ -8515,8 +8552,8 @@
       <c r="A36" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>60</v>
+      <c r="B36" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>40</v>
@@ -8528,43 +8565,43 @@
         <v>34.8</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" s="6" t="n">
+        <v>2108</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>64</v>
+      <c r="P36" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>6</v>
@@ -8697,8 +8734,8 @@
       <c r="A37" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>60</v>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>47.4</v>
@@ -8710,43 +8747,43 @@
         <v>44.2</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="J37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>61</v>
+      <c r="L37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>3513</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P37" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="P37" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="Q37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S37" s="3" t="n">
         <v>4</v>
@@ -8896,1138 +8933,1138 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="38:45 F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="40.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="43.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="40.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="43.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="7" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="8" t="n">
         <v>62</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>78</v>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="8" t="n">
         <v>63</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>80</v>
+      <c r="F3" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="8" t="n">
         <v>67</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>82</v>
+      <c r="C4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>84</v>
+      <c r="C5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>86</v>
+      <c r="C6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>88</v>
+      <c r="C7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>90</v>
+      <c r="B8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="8" t="n">
         <v>77</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="8" t="n">
         <v>79</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="8" t="n">
         <v>86</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="B12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="8" t="n">
         <v>92</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="8" t="n">
         <v>96</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="8" t="n">
         <v>97</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="8" t="n">
         <v>98</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="8" t="n">
         <v>99</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="8" t="n">
         <v>102</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="8" t="n">
         <v>103</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="8" t="n">
         <v>104</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="8" t="n">
         <v>105</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="8" t="n">
         <v>106</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="8" t="n">
         <v>107</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="8" t="n">
         <v>108</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="8" t="n">
         <v>109</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="8" t="n">
         <v>110</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="8" t="n">
         <v>113</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="8" t="n">
         <v>114</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="8" t="n">
         <v>115</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="8" t="n">
         <v>116</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="8" t="n">
         <v>117</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="8" t="n">
         <v>118</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="8" t="n">
         <v>119</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="D40" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+      <c r="A43" s="8" t="n">
         <v>124</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="D43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="8" t="n">
         <v>125</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="8" t="n">
         <v>126</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="8" t="n">
         <v>127</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+      <c r="A47" s="8" t="n">
         <v>128</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="8" t="n">
         <v>129</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+      <c r="A49" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="8" t="n">
         <v>131</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+      <c r="A51" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="8" t="n">
         <v>133</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+      <c r="A53" s="8" t="n">
         <v>134</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="D53" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
+      <c r="A54" s="8" t="n">
         <v>135</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="12" t="s">
+      <c r="D54" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
+      <c r="A55" s="8" t="n">
         <v>136</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="8" t="n">
         <v>137</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -10049,8 +10086,8 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="1" sqref="38:45 K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="67" zoomScaleNormal="67" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10075,297 +10112,297 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="13" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="15" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="15" t="n">
+      <c r="A2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="15" t="n">
+      <c r="D2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="15" t="n">
+      <c r="H2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="15" t="n">
+      <c r="M2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="17" t="n">
         <f aca="false">MAX(Tabela5[NOTA BRUTA])</f>
+        <v>72.7</v>
+      </c>
+      <c r="O2" s="17" t="n">
+        <f aca="false">MAX(Tabela5[NOTA FORMAÇÃO GERAL])</f>
         <v>86.2</v>
       </c>
-      <c r="O2" s="15" t="n">
-        <f aca="false">MAX(Tabela5[NOTA FORMAÇÃO GERAL])</f>
+      <c r="P2" s="17" t="n">
+        <f aca="false">MAX(Tabela5[NOTA COMPONENTE ESPECÍFICO])</f>
         <v>69.5</v>
-      </c>
-      <c r="P2" s="15" t="n">
-        <f aca="false">MAX(Tabela5[NOTA COMPONENTE ESPECÍFICO])</f>
-        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="A3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="E3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="15" t="n">
+      <c r="J3" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="15" t="n">
+      <c r="M3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="17" t="n">
         <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA BRUTA],3)</f>
+        <v>51.875</v>
+      </c>
+      <c r="O3" s="17" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA FORMAÇÃO GERAL],3)</f>
         <v>67.45</v>
       </c>
-      <c r="O3" s="15" t="n">
-        <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA FORMAÇÃO GERAL],3)</f>
-        <v>55.4</v>
-      </c>
-      <c r="P3" s="15" t="n">
+      <c r="P3" s="17" t="n">
         <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA COMPONENTE ESPECÍFICO],3)</f>
         <v>55.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="16" t="n">
+      <c r="A4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="18" t="n">
         <v>36</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="15" t="n">
+      <c r="D4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="15" t="n">
+      <c r="G4" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="15" t="n">
+      <c r="J4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="N4" s="15" t="n">
+      <c r="M4" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="17" t="n">
         <f aca="false">MEDIAN(Tabela5[NOTA BRUTA])</f>
+        <v>44.5</v>
+      </c>
+      <c r="O4" s="17" t="n">
+        <f aca="false">MEDIAN(Tabela5[NOTA FORMAÇÃO GERAL])</f>
         <v>56.85</v>
       </c>
-      <c r="O4" s="15" t="n">
-        <f aca="false">MEDIAN(Tabela5[NOTA FORMAÇÃO GERAL])</f>
-        <v>38.95</v>
-      </c>
-      <c r="P4" s="15" t="n">
+      <c r="P4" s="17" t="n">
         <f aca="false">MEDIAN(Tabela5[NOTA COMPONENTE ESPECÍFICO])</f>
         <v>38.95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="15" t="n">
+      <c r="D5" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="15" t="n">
+      <c r="G5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="15" t="n">
+      <c r="J5" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="N5" s="15" t="n">
+      <c r="M5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="17" t="n">
         <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA BRUTA],1)</f>
+        <v>39.25</v>
+      </c>
+      <c r="O5" s="17" t="n">
+        <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA FORMAÇÃO GERAL],1)</f>
         <v>47.575</v>
       </c>
-      <c r="O5" s="15" t="n">
-        <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA FORMAÇÃO GERAL],1)</f>
-        <v>31.15</v>
-      </c>
-      <c r="P5" s="15" t="n">
+      <c r="P5" s="17" t="n">
         <f aca="false">_xlfn.QUARTILE.EXC(Tabela5[NOTA COMPONENTE ESPECÍFICO],1)</f>
         <v>31.15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="15" t="n">
+      <c r="D6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="15" t="n">
+      <c r="H6" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="15" t="n">
+      <c r="M6" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" s="17" t="n">
         <f aca="false">MIN(Tabela5[NOTA BRUTA])</f>
+        <v>21.9</v>
+      </c>
+      <c r="O6" s="17" t="n">
+        <f aca="false">MIN(Tabela5[NOTA FORMAÇÃO GERAL])</f>
         <v>18</v>
       </c>
-      <c r="O6" s="15" t="n">
-        <f aca="false">MIN(Tabela5[NOTA FORMAÇÃO GERAL])</f>
+      <c r="P6" s="17" t="n">
+        <f aca="false">MIN(Tabela5[NOTA COMPONENTE ESPECÍFICO])</f>
         <v>23.2</v>
-      </c>
-      <c r="P6" s="15" t="n">
-        <f aca="false">MIN(Tabela5[NOTA COMPONENTE ESPECÍFICO])</f>
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="16" t="n">
+      <c r="D7" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="18" t="n">
         <v>36</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="15" t="n">
+      <c r="J7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="16" t="n">
+      <c r="D8" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="18" t="n">
         <v>36</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="15" t="n">
+      <c r="J8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="17" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K9" s="15" t="n">
+      <c r="J9" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" s="15" t="n">
+      <c r="J10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J11" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="K11" s="15" t="n">
+      <c r="J11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K11" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J12" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" s="16" t="n">
+      <c r="J12" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" s="18" t="n">
         <f aca="false">SUM(K2:K11)</f>
         <v>36</v>
       </c>
@@ -10389,7 +10426,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T21" activeCellId="1" sqref="38:45 T21"/>
+      <selection pane="topLeft" activeCell="T21" activeCellId="0" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
